--- a/Docs/Bugs.xlsx
+++ b/Docs/Bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\SubTerra\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D66C7C-8D58-4020-8109-DF64FA95375A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF10165-5FD8-49C4-9016-0C7FD62D3B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Player</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>Potential fix</t>
+  </si>
+  <si>
+    <t>Found by</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Resolved?</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -361,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -373,9 +385,10 @@
     <col min="2" max="2" width="105.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -388,8 +401,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -398,6 +417,12 @@
       </c>
       <c r="D2" s="1">
         <v>45967</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Bugs.xlsx
+++ b/Docs/Bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\SubTerra\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF10165-5FD8-49C4-9016-0C7FD62D3B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349AAA93-9CCA-431A-8EFE-B43F309747D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Player</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Player can be pushed into ground by moving objects</t>
+  </si>
+  <si>
+    <t>Set rigidbody2D to continuous detection</t>
   </si>
 </sst>
 </file>
@@ -373,17 +379,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="105.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
   </cols>
@@ -425,6 +431,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45967</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
